--- a/plan/excel/achv_成就表.xlsx
+++ b/plan/excel/achv_成就表.xlsx
@@ -20,7 +20,7 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
-    <author>Author</author>
+    <author>作者</author>
   </authors>
   <commentList>
     <comment ref="B1" authorId="0" shapeId="0">
@@ -55,54 +55,6 @@
             <charset val="134"/>
           </rPr>
           <t>新增成就之后，告诉程序在代码中加处理逻辑</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author>Author</author>
-  </authors>
-  <commentList>
-    <comment ref="A2" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">1 客户端专用
-2 服务器专用
-3 通用
-0 策划维护用
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C2" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">1 客户端专用
-2 服务器专用
-3 通用
-0 策划维护用
-</t>
         </r>
       </text>
     </comment>
@@ -320,7 +272,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -336,7 +288,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -626,7 +578,7 @@
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomLeft" activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -732,11 +684,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -850,6 +802,5 @@
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>